--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ056Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ056Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB65A0D-2961-4F92-B816-A58761FB3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB25FD-4488-474A-B4B6-115D3C22D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,10 +309,6 @@
   </si>
   <si>
     <t>法院裁定免責確定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:新增;C:異動;D:刪除</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -425,6 +421,12 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1024,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1044,10 +1046,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1072,10 +1074,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1128,7 +1130,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="13"/>
@@ -1139,7 +1141,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="13"/>
@@ -1176,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
@@ -1195,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>18</v>
@@ -1209,7 +1211,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="48.6">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1226,8 +1228,8 @@
         <v>1</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
-        <v>59</v>
+      <c r="G13" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1241,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="14">
         <v>4</v>
@@ -1311,7 +1313,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4">
@@ -1332,7 +1334,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.4">
@@ -1343,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>20</v>
@@ -1353,7 +1355,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
@@ -1374,7 +1376,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1414,7 +1416,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1979,24 +1981,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="C2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
